--- a/Control Equation of 5Bars Mechanism.xlsx
+++ b/Control Equation of 5Bars Mechanism.xlsx
@@ -796,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1187,30 +1187,30 @@
     </row>
     <row r="27" spans="1:31" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>4.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="B27" s="6">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="C27" s="14">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D27" s="15">
         <f>C27/2</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E27" s="15">
         <v>120</v>
       </c>
       <c r="F27" s="16">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="15">
         <f>((A27+D27)^2+(B27)^2)^0.5</f>
-        <v>64.665794667660279</v>
+        <v>40</v>
       </c>
       <c r="I27" s="17" t="e">
         <f>DEGREES(ACOS((E27^2+G27^2-F27^2)/(2*G27*E27)))</f>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="J27" s="15">
         <f>DEGREES(ACOS((E27^2+H27^2-F27^2)/(2*H27*E27)))</f>
-        <v>93.762179979660431</v>
+        <v>180</v>
       </c>
       <c r="K27" s="15" t="e">
         <f>DEGREES(ACOS((C27^2+G27^2-H27^2)/(2*C27*G27)))</f>

--- a/Control Equation of 5Bars Mechanism.xlsx
+++ b/Control Equation of 5Bars Mechanism.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Inputs</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>5 Bars Mechanism Inverse Kinematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -796,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +871,9 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>27.492000000000001</v>
+      </c>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
@@ -1190,51 +1190,52 @@
         <v>0</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C27" s="14">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D27" s="15">
         <f>C27/2</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E27" s="15">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="F27" s="16">
-        <v>160</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="8">
+        <f>((-A27+D27)^2+(B27)^2)^0.5</f>
+        <v>10.307764064044152</v>
       </c>
       <c r="H27" s="15">
         <f>((A27+D27)^2+(B27)^2)^0.5</f>
-        <v>40</v>
-      </c>
-      <c r="I27" s="17" t="e">
+        <v>10.307764064044152</v>
+      </c>
+      <c r="I27" s="17">
         <f>DEGREES(ACOS((E27^2+G27^2-F27^2)/(2*G27*E27)))</f>
-        <v>#VALUE!</v>
+        <v>91.331845591270181</v>
       </c>
       <c r="J27" s="15">
         <f>DEGREES(ACOS((E27^2+H27^2-F27^2)/(2*H27*E27)))</f>
-        <v>180</v>
-      </c>
-      <c r="K27" s="15" t="e">
+        <v>91.331845591270181</v>
+      </c>
+      <c r="K27" s="15">
         <f>DEGREES(ACOS((C27^2+G27^2-H27^2)/(2*C27*G27)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" s="9" t="e">
+        <v>67.166345822082462</v>
+      </c>
+      <c r="L27" s="9">
         <f>DEGREES(ACOS((C27^2+H27^2-G27^2)/(2*C27*H27)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27" s="19" t="e">
+        <v>67.166345822082462</v>
+      </c>
+      <c r="M27" s="19">
         <f>I27+K27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N27" s="21" t="e">
+        <v>158.49819141335263</v>
+      </c>
+      <c r="N27" s="21">
         <f>J27+L27</f>
-        <v>#VALUE!</v>
+        <v>158.49819141335263</v>
       </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>

--- a/Control Equation of 5Bars Mechanism.xlsx
+++ b/Control Equation of 5Bars Mechanism.xlsx
@@ -794,7 +794,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="27" spans="1:31" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="B27" s="6">
         <v>9.5</v>
@@ -1207,35 +1207,35 @@
       </c>
       <c r="G27" s="8">
         <f>((-A27+D27)^2+(B27)^2)^0.5</f>
-        <v>10.307764064044152</v>
+        <v>12.747548783981962</v>
       </c>
       <c r="H27" s="15">
         <f>((A27+D27)^2+(B27)^2)^0.5</f>
-        <v>10.307764064044152</v>
+        <v>9.5131487952202232</v>
       </c>
       <c r="I27" s="17">
         <f>DEGREES(ACOS((E27^2+G27^2-F27^2)/(2*G27*E27)))</f>
-        <v>91.331845591270181</v>
+        <v>80.499023587088544</v>
       </c>
       <c r="J27" s="15">
         <f>DEGREES(ACOS((E27^2+H27^2-F27^2)/(2*H27*E27)))</f>
-        <v>91.331845591270181</v>
+        <v>95.403429832170204</v>
       </c>
       <c r="K27" s="15">
         <f>DEGREES(ACOS((C27^2+G27^2-H27^2)/(2*C27*G27)))</f>
-        <v>67.166345822082462</v>
+        <v>48.179830119864228</v>
       </c>
       <c r="L27" s="9">
         <f>DEGREES(ACOS((C27^2+H27^2-G27^2)/(2*C27*H27)))</f>
-        <v>67.166345822082462</v>
+        <v>93.012787504183336</v>
       </c>
       <c r="M27" s="19">
         <f>I27+K27</f>
-        <v>158.49819141335263</v>
+        <v>128.67885370695276</v>
       </c>
       <c r="N27" s="21">
         <f>J27+L27</f>
-        <v>158.49819141335263</v>
+        <v>188.41621733635355</v>
       </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
